--- a/static/tmp/registro/planificacion.xlsx
+++ b/static/tmp/registro/planificacion.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +470,3932 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>83258</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:14:00</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.1972222222222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>83965</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45176.22708333333</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:27:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:07:00</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>82771</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(14, 14)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45176.19791666666</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:45:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:53:30</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0.3392361111111111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>83540</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45176.60277777778</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:28:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:08:00</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>83282</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45176.70486111111</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:55:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:35:00</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>83953</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45176.51388888889</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:20:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:00:00</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>83569</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(67, 67)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45176.69375</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:39:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:19:00</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>83702</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(80, 80)</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45176.20833333334</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:00:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-09-07 13:03:00</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.3354166666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>82736</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45176.43819444445</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:31:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:04:00</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0.1895833333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>83390</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(65, 65)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45176.60486111111</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:31:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:11:00</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>83641</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45176.68888888889</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:32:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:12:00</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>83808</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45176.44861111111</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:46:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:26:00</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>83931</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45176.69861111111</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:46:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:26:00</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>83315</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(83, 83)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45176.55902777778</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-09-07 13:25:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:05:00</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>83717</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45176.44861111111</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:46:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:26:00</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>81318</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(20, 20)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45176.27916666667</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:42:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:54:00</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>83966</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45176.21319444444</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:07:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:47:00</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>83564</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(78, 78)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45176.61388888889</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:44:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-09-07 23:08:00</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>83287</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(30, 30)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>83645</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(68, 68)</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45176.41458333333</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:57:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:29:30</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.3142361111111111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>83754</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(58, 58)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:58:00</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>83291</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(47, 47)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>83579</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(80, 80)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45176.74375</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:51:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-09-07 19:31:00</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>83292</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(61, 61)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>83080</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(18, 18)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45176.18819444445</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:31:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:04:00</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.3145833333333333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>83219</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(23, 23)</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45176.46805555555</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:14:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:43:00</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0.2701388888888889</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>83962</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45176.21458333333</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:09:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:49:00</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>83787</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45176.29375</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:03:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:43:00</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>83279</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45176.52638888889</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:38:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:18:00</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>83378</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45176.32291666666</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:45:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:10:00</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.2673611111111111</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>83604</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45176.32291666666</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:45:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:25:00</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>83377</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45176.62569444445</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:01:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:41:00</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>84017</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45176.60763888889</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:35:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:35:00</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>83301</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>(86, 86)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45176.77013888889</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:29:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-09-07 20:09:00</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>82447</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45176.4375</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:30:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:10:00</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>81325</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(63, 63)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45176.44583333333</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:42:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:54:00</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>82533</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45176.42916666667</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:18:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:58:00</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>83297</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45176.20486111111</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:55:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:55:00</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>83136</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(5, 5)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45176.48819444444</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:43:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:12:00</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0.2701388888888889</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>83122</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>(60, 60)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45176.45833333334</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:00:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2023-09-07 19:05:00</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0.3368055555555556</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>83166</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>(85, 85)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45176.49097222222</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:47:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:36:00</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>0.1590277777777778</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>84018</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45176.375</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:00:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:00:00</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>83299</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45176.21527777778</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:10:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:10:00</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>83866</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>(15, 15)</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45176.725</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:24:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2023-09-07 19:04:00</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>83618</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45176.47222222222</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:20:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2023-09-07 13:00:00</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>83167</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>(86, 86)</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45176.42638888889</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:14:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:16:00</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>0.1680555555555556</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>83629</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45176.59513888889</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:17:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:57:00</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>83544</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45176.63402777778</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:13:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:53:00</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>83174</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>(83, 83)</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45176.21805555555</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:14:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:30:00</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0.2194444444444444</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>83820</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45176.45138888889</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:50:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:30:00</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>81317</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45176.32083333333</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:42:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2023-09-07 13:54:00</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>84006</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45176.59722222222</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:20:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:00:00</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>83934</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>(34, 34)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45176.52708333333</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:39:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:39:00</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>83247</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45176.17638888889</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:14:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:46:00</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>0.2722222222222222</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>83964</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>(76, 76)</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45176.31319444445</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:31:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:11:00</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>82678</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>(24, 24)</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45176.39513888889</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:29:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:19:30</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>0.3267361111111111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>82750</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>(40, 40)</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45176.19375</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:39:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:01:30</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>84007</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45176.18055555555</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:20:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:00:00</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>83316</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45176.59861111111</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:02:00</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>83566</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>(29, 29)</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45176.71597222222</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:11:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:51:00</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>83594</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>(2, 2)</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45176.43333333333</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:24:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:04:00</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>83560</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45176.42361111111</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:10:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:50:00</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>83373</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45176.20972222222</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:02:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:42:00</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>82774</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>(74, 74)</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45176.44791666666</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:45:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:53:30</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>0.3392361111111111</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>83349</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>(9, 9)</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45176.33819444444</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:07:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:47:00</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>83352</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>(16, 16)</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45176.44375</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:39:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:16:30</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>0.3177083333333333</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>83610</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(58, 58)</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45176.62777777778</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:04:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:44:00</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>83554</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45176.33263888889</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:59:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:39:00</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>83254</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>(82, 82)</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45176.16111111111</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:52:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:12:00</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>82534</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45176.43611111111</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:28:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:08:00</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>83788</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45176.22638888889</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:26:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:06:00</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>83755</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45176.1875</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:30:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:58:00</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>83638</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45176.43819444445</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:31:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:11:00</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>83353</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45176.58055555556</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-09-07 13:56:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:36:00</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>83537</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>(19, 19)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45176.69305555556</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:38:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:18:00</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>83181</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>(52, 52)</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45176.52847222222</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:41:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:24:00</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>0.1965277777777778</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>83599</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45176.41944444444</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:04:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:44:00</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>83855</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45176.33055555556</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:56:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:36:00</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>81156</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45176.28472222222</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:50:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:30:00</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81327</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>(67, 67)</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45176.2375</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:42:00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:48:00</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>0.2541666666666667</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>83961</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>(70, 70)</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45176.16666666666</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:00:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:32:00</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>0.3138888888888889</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>84015</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45176.29166666666</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:00:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:00:00</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82433</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>(66, 66)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45176.29375</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:03:00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:43:00</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83248</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>(43, 43)</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45176.28333333333</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:48:00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:28:00</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>81326</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>(11, 11)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45176.4875</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:42:00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:48:00</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>0.2541666666666667</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>83700</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>(35, 35)</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45176.70902777778</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:01:00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:41:00</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>83746</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>(65, 65)</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45176.125</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:00:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:04:00</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>0.3361111111111111</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>83721</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>(78, 78)</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45176.43888888889</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:32:00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:12:00</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>83545</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>(7, 7)</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45176.52083333334</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:30:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:10:00</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>83153</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45176.21736111111</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:13:00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:43:00</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>83543</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45176.61041666667</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:39:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2023-09-07 22:09:00</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>83548</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45176.54861111111</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-09-07 13:10:00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:50:00</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>83303</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45176.20833333334</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:00:00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:31:00</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>0.1881944444444444</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>83229</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>(45, 45)</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45176.30069444444</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:13:00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:43:00</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>83585</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45176.43611111111</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:28:00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:08:00</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>83603</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>(76, 76)</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45176.58333333334</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:00:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2023-09-08 00:50:00</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>83624</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>(72, 72)</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45176.73958333334</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:45:00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2023-09-07 19:25:00</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>83981</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>(31, 31)</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45176.18055555555</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:20:00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:00:00</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>83612</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>(39, 39)</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45176.69583333333</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:42:00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:22:00</t>
+        </is>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>83561</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>(44, 44)</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45176.51666666667</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:24:00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:04:00</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>83952</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>(48, 48)</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45176.51388888889</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:20:00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:00:00</t>
+        </is>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>84020</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>(38, 38)</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45176.72291666667</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:21:00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2023-09-07 19:01:00</t>
+        </is>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>81290</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>(78, 78)</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45176.20833333334</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:00:00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>83714</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>(55, 55)</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45176.45138888889</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:50:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:30:00</t>
+        </is>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>83825</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45176.45</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:48:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:28:00</t>
+        </is>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>83896</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>(76, 76)</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45176.45833333334</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:00:00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:00:00</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>82984</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>(56, 56)</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45176.44305555556</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:38:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:11:00</t>
+        </is>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>0.2729166666666666</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>83557</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>(4, 4)</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45176.22916666666</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:30:00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:31:00</t>
+        </is>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>0.3756944444444444</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>83055</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>(22, 22)</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45176.38472222222</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:14:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:36:00</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>0.2236111111111111</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>83294</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>(41, 41)</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>83290</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>(75, 75)</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>83264</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>(85, 85)</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45176.1875</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:30:00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:14:00</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>0.1972222222222222</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>82772</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>(73, 73)</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>45176.44791666666</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:45:00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:53:30</t>
+        </is>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>0.3392361111111111</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>83999</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>(79, 79)</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45176.41666666666</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:00:00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:34:00</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>0.3569444444444445</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>83639</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>(49, 49)</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>45176.33333333334</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:54:30</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>0.3711805555555556</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>82564</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>(77, 77)</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>45176.35972222222</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:38:00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:11:00</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>0.2729166666666666</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>83701</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>(69, 69)</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45176.25</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:00:00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:03:00</t>
+        </is>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>0.3354166666666666</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>81322</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>(37, 37)</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>45176.40416666667</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:42:00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:54:00</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>83338</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>(62, 62)</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>45176.18541666667</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:27:00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:07:00</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>83210</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>(33, 33)</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>45176.41666666666</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:00:00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2023-09-07 19:04:00</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>0.3777777777777778</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>82679</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>(36, 36)</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>45176.33263888889</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:59:00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:49:30</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>0.3267361111111111</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>83958</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>(46, 46)</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>45176.21180555555</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:05:00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:32:00</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>0.51875</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>83288</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>(17, 17)</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>83567</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>(32, 32)</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>45176.59097222222</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:11:00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2023-09-07 21:09:00</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>0.2902777777777778</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>83562</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>(59, 59)</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45176.32222222222</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:44:00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:32:00</t>
+        </is>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>83351</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>(71, 71)</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>45176.36041666667</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:39:00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:16:30</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>0.3177083333333333</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>83293</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>(0, 0)</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>83309</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>(84, 84)</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>45176.29166666666</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:00:00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:19:00</t>
+        </is>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>0.3048611111111111</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>83298</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>(86, 86)</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>45176.20138888889</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:50:00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:50:00</t>
+        </is>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>83289</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>(57, 57)</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>83090</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>(21, 21)</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>45176.325</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:48:00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2023-09-07 21:19:00</t>
+        </is>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>0.5631944444444444</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>83546</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>45176.70277777778</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:52:00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:32:00</t>
+        </is>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>83385</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>(10, 10)</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>45176.16597222222</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:59:00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:50:30</t>
+        </is>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>0.2857638888888889</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>82769</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>(6, 6)</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>45176.19791666666</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:45:00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:53:30</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>0.3392361111111111</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>83123</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>(27, 27)</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>45176.58888888889</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:08:00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2023-09-07 21:08:00</t>
+        </is>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>84003</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>(50, 50)</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>45176.35416666666</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:30:00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:04:00</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>0.3569444444444445</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>82735</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>(13, 13)</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>45176.31319444445</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-09-07 07:31:00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2023-09-07 15:04:00</t>
+        </is>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>0.3145833333333333</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>83354</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>(12, 12)</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>45176.40208333333</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:39:00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:16:30</t>
+        </is>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>0.3177083333333333</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>83538</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>(65, 65)</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>45176.51944444444</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-09-07 12:28:00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:08:00</t>
+        </is>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>83295</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>(53, 53)</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>45176.14583333334</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-09-07 03:30:00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:22:00</t>
+        </is>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>0.4527777777777778</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>81320</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>(54, 54)</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>45176.19583333333</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-09-07 04:42:00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2023-09-07 10:54:00</t>
+        </is>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>0.2583333333333334</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>83175</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>(64, 64)</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>45176.58888888889</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:08:00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2023-09-07 19:30:00</t>
+        </is>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>0.2236111111111111</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>84005</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>(51, 51)</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>45176.45972222222</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:02:00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:02:00</t>
+        </is>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>84000</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>(8, 8)</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>45176.375</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:00:00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:34:00</t>
+        </is>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>0.3569444444444445</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>83637</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>45176.27638888889</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:38:00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2023-09-08 00:30:00</t>
+        </is>
+      </c>
+      <c r="F146" s="3" t="n">
+        <v>0.7444444444444445</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>83635</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>(28, 28)</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>45176.54166666666</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-09-07 13:00:00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2023-09-07 14:40:00</t>
+        </is>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>83872</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>(81, 81)</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>45176.22083333333</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-09-07 05:18:00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2023-09-07 21:31:00</t>
+        </is>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>0.6756944444444445</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>82766</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>(72, 72)</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>45176.26111111111</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-09-07 06:16:00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2023-09-07 13:53:00</t>
+        </is>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>0.3173611111111111</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>83148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>(42, 42)</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>45176.3375</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-09-07 08:06:00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2023-09-07 16:47:30</t>
+        </is>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>0.3621527777777778</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>83252</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>(25, 25)</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>45176.41111111111</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-09-07 09:52:00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:12:00</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>83160</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>(26, 26)</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45176.45833333334</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-09-07 11:00:00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:30</t>
+        </is>
+      </c>
+      <c r="F152" s="3" t="n">
+        <v>0.2913194444444445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
